--- a/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
+++ b/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1645,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,17 +1657,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1676,13 +1697,673 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3626</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>30</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
+++ b/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2310,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,17 +2322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2341,14 +2362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.73</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2357,13 +2400,1255 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>30</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
+++ b/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5667</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7055</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="4">
@@ -580,1060 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5258</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5173</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4538</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3433</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012045</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2739</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010371</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成成长进取混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.34</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2361</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2207</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2169</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1999</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519655</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河现代服务主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1833</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1287</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010372</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成成长进取混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519127</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浦银安盛盛世精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>23.80</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.69</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519177</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浦银安盛盛世精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009387</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>44.66</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>012046</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>519175</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浦银安盛经济带崛起灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>33.22</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004274</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>浦银安盛安恒回报定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>217021</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商优势企业混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011377</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011378</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004801</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浦银安盛安久回报定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>21.55</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004275</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浦银安盛安恒回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009388</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>44.66</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004802</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>浦银安盛安久回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.55</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.949999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1642,6 +532,1274 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,13 +2463,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2362,36 +2520,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005176</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国精准医疗灵活配置混合</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.85</t>
+          <t>42.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>76.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7100</t>
+          <t>3.5667</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2400,36 +2558,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>501079</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>21.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>87.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4681</t>
+          <t>1.7055</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2438,36 +2596,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011335</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河医药健康混合型证券投资基金</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4441</t>
+          <t>0.5258</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2476,32 +2634,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004040</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票A</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>13.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2815</t>
+          <t>0.5173</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2514,36 +2672,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002919</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴智慧医疗量化策略灵活配置混合</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>76.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2741</t>
+          <t>0.4538</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2552,36 +2710,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>004041</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>金鹰医疗健康产业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>94.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2384</t>
+          <t>0.3433</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2600,26 +2758,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2051</t>
+          <t>0.2739</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2628,36 +2786,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004041</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票C</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1885</t>
+          <t>0.2361</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2666,36 +2824,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.01</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1520</t>
+          <t>0.2207</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2704,36 +2862,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011948</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1504</t>
+          <t>0.2169</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2742,36 +2900,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013940</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴医疗服务股票A</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1066</t>
+          <t>0.1999</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2780,36 +2938,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006981</t>
+          <t>519655</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中金新医药股票A</t>
+          <t>银河现代服务主题灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.1833</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2818,36 +2976,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011383</t>
+          <t>004040</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富安达医药创新混合</t>
+          <t>金鹰医疗健康产业股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>94.86</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.1287</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2856,36 +3014,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008412</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长盛竞争优势股票A</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2894,36 +3052,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001365</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成正向回报灵活配置混合</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0482</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2932,36 +3090,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>013941</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴医疗服务股票C</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0450</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2970,36 +3128,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>519127</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0372</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -3018,22 +3176,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>88.69</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -3046,36 +3204,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>519177</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -3084,36 +3242,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>44.66</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -3122,36 +3280,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008413</t>
+          <t>012046</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长盛竞争优势股票C</t>
+          <t>大成医药健康股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3160,36 +3318,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>012046</t>
+          <t>519175</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大成医药健康股票C</t>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>33.22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -3198,36 +3356,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011377</t>
+          <t>004274</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创金合信积极成长股票A</t>
+          <t>浦银安盛安恒回报定期开放混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3236,36 +3394,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007005</t>
+          <t>217021</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中金新医药股票C</t>
+          <t>招商优势企业混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>79.91</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -3274,36 +3432,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>011377</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>创金合信积极成长股票A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -3322,26 +3480,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -3350,32 +3508,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>004801</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>浦银安盛安久回报定期开放混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -3388,36 +3546,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001495</t>
+          <t>004275</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方新价值混合A</t>
+          <t>浦银安盛安恒回报定期开放混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27.37</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -3426,36 +3584,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004166</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合A</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>44.66</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -3464,192 +3622,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002162</t>
+          <t>004802</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东方新价值混合C</t>
+          <t>浦银安盛安久回报定期开放混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27.37</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>014470</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.949999999999999</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
+++ b/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>4.73</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>2.73</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>30</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>
@@ -532,6 +549,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1799,7 +2402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2463,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
+++ b/数据整理/stocks/A股/科创板/688105-诺唯赞.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>4.73</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>2.73</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1134,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2402,7 +2551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3066,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
